--- a/biology/Botanique/Echinaria_capitata/Echinaria_capitata.xlsx
+++ b/biology/Botanique/Echinaria_capitata/Echinaria_capitata.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Echinaria capitata, l'échinaire capitée ou échinaire en tête, est une espèce de plantes monocotylédones de la famille des Poaceae, sous-famille des Pooideae, originaire d'Eurasie et d'Afrique du Nord. C'est la seule espèce du genre Echinaria (genre monotypique).
 Ce sont des plantes herbacées annuelles pouvant atteindre 30 cm de haut. Elles se caractérisent par une inflorescence condensée en une tête globuleuse hérissée d'arêtes.
@@ -514,8 +526,13 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Synonymes
-Selon Catalogue of Life                                   (2 novembre 2017)[3] :
+          <t>Synonymes</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Selon Catalogue of Life                                   (2 novembre 2017) :
 Cenchrus capitatus L. (basionyme)
 Echinaria capitata var. pumila (Willk.) Willk.
 Echinaria capitata var. todaroana Ces.
@@ -523,9 +540,43 @@
 Echinaria spicata Debeaux
 Echinaria todaroana (Ces.) Cif. &amp; Giacom.
 Panicastrella capitata (L.) Moench
-Reimbolea spicata Debeaux
-Liste des variétés
-Selon Tropicos                                           (2 novembre 2017)[1] (Attention liste brute contenant possiblement des synonymes) :
+Reimbolea spicata Debeaux</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Echinaria_capitata</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Echinaria_capitata</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Taxinomie</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Liste des variétés</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Selon Tropicos                                           (2 novembre 2017) (Attention liste brute contenant possiblement des synonymes) :
 variété Echinaria capitata var. capitata
 variété Echinaria capitata var. communis Ces., Pass. &amp; Gibelli
 variété Echinaria capitata var. pumila (Willk.) Willk. &amp; Lange
